--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori5/42/word_level_predictions_42.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori5/42/word_level_predictions_42.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>obstacle</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>avoidance</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>obstacle</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>avoidance</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
